--- a/python/experimental/fitted z-data python on circle data.xlsx
+++ b/python/experimental/fitted z-data python on circle data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C101"/>
+  <dimension ref="A1:C100"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,10 +446,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1010.121138086798</v>
+        <v>1010.231107916409</v>
       </c>
       <c r="C2" t="n">
-        <v>-1.025082156617682</v>
+        <v>-1.175494438745009</v>
       </c>
     </row>
     <row r="3">
@@ -457,10 +457,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>1010.204587587011</v>
+        <v>1010.327302272933</v>
       </c>
       <c r="C3" t="n">
-        <v>-1.178283030807996</v>
+        <v>-1.350922807468496</v>
       </c>
     </row>
     <row r="4">
@@ -468,10 +468,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>1010.301080213957</v>
+        <v>1010.438602615205</v>
       </c>
       <c r="C4" t="n">
-        <v>-1.354038994568874</v>
+        <v>-1.552080282758626</v>
       </c>
     </row>
     <row r="5">
@@ -479,10 +479,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1010.412718577435</v>
+        <v>1010.567463430069</v>
       </c>
       <c r="C5" t="n">
-        <v>-1.555557679585245</v>
+        <v>-1.782590805105681</v>
       </c>
     </row>
     <row r="6">
@@ -490,10 +490,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1010.541962410239</v>
+        <v>1010.71676061807</v>
       </c>
       <c r="C6" t="n">
-        <v>-1.786465232864079</v>
+        <v>-2.046538296280387</v>
       </c>
     </row>
     <row r="7">
@@ -501,10 +501,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1010.691693521894</v>
+        <v>1010.889868910757</v>
       </c>
       <c r="C7" t="n">
-        <v>-2.050847557412287</v>
+        <v>-2.348507091844277</v>
       </c>
     </row>
     <row r="8">
@@ -512,10 +512,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>1010.865293280498</v>
+        <v>1011.090754621157</v>
       </c>
       <c r="C8" t="n">
-        <v>-2.353290595986651</v>
+        <v>-2.693619787099924</v>
       </c>
     </row>
     <row r="9">
@@ -523,10 +523,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>1011.066735424314</v>
+        <v>1011.32408548136</v>
       </c>
       <c r="C9" t="n">
-        <v>-2.698917984202587</v>
+        <v>-3.087567393015235</v>
       </c>
     </row>
     <row r="10">
@@ -534,10 +534,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>1011.300695947354</v>
+        <v>1011.595361946083</v>
       </c>
       <c r="C10" t="n">
-        <v>-3.093420956790961</v>
+        <v>-3.536629413588969</v>
       </c>
     </row>
     <row r="11">
@@ -545,10 +545,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>1011.572684431198</v>
+        <v>1011.911070904476</v>
       </c>
       <c r="C11" t="n">
-        <v>-3.543078110964568</v>
+        <v>-4.047673579713331</v>
       </c>
     </row>
     <row r="12">
@@ -556,10 +556,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>1011.889197743886</v>
+        <v>1012.278866703843</v>
       </c>
       <c r="C12" t="n">
-        <v>-4.054754745003978</v>
+        <v>-4.628129703835524</v>
       </c>
     </row>
     <row r="13">
@@ -567,10 +567,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>1012.257900992691</v>
+        <v>1012.707779366586</v>
       </c>
       <c r="C13" t="n">
-        <v>-4.635876230345342</v>
+        <v>-5.28592199565467</v>
       </c>
     </row>
     <row r="14">
@@ -578,10 +578,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>1012.687835574772</v>
+        <v>1013.208453277649</v>
       </c>
       <c r="C14" t="n">
-        <v>-5.294359744378545</v>
+        <v>-6.029348580664989</v>
       </c>
     </row>
     <row r="15">
@@ -589,10 +589,10 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>1013.189657566983</v>
+        <v>1013.793408734486</v>
       </c>
       <c r="C15" t="n">
-        <v>-6.038493108921555</v>
+        <v>-6.866880398960214</v>
       </c>
     </row>
     <row r="16">
@@ -600,10 +600,10 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>1013.775898778168</v>
+        <v>1014.477323264797</v>
       </c>
       <c r="C16" t="n">
-        <v>-6.876732913294492</v>
+        <v>-7.806861876027908</v>
       </c>
     </row>
     <row r="17">
@@ -611,10 +611,10 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>1014.461247309034</v>
+        <v>1015.277315888446</v>
       </c>
       <c r="C17" t="n">
-        <v>-7.817404351943313</v>
+        <v>-8.857081667889767</v>
       </c>
     </row>
     <row r="18">
@@ -622,10 +622,10 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>1015.262830707791</v>
+        <v>1016.213201032059</v>
       </c>
       <c r="C18" t="n">
-        <v>-8.868271137403909</v>
+        <v>-10.02417304026736</v>
       </c>
     </row>
     <row r="19">
@@ -633,10 +633,10 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>1016.200468327416</v>
+        <v>1017.307676297649</v>
       </c>
       <c r="C19" t="n">
-        <v>-10.03593515328366</v>
+        <v>-11.31282230709136</v>
       </c>
     </row>
     <row r="20">
@@ -644,10 +644,10 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>1017.296857021616</v>
+        <v>1018.586368981284</v>
       </c>
       <c r="C20" t="n">
-        <v>-11.3250444563267</v>
+        <v>-12.7247461724083</v>
       </c>
     </row>
     <row r="21">
@@ -655,10 +655,10 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>1018.57761501459</v>
+        <v>1020.077656344015</v>
       </c>
       <c r="C21" t="n">
-        <v>-12.73727072244572</v>
+        <v>-14.25743624536612</v>
       </c>
     </row>
     <row r="22">
@@ -666,10 +666,10 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>1020.071099005719</v>
+        <v>1021.812120770863</v>
       </c>
       <c r="C22" t="n">
-        <v>-14.27005476171452</v>
+        <v>-15.90267244413677</v>
       </c>
     </row>
     <row r="23">
@@ -677,10 +677,10 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>1021.807855820727</v>
+        <v>1023.821519137902</v>
       </c>
       <c r="C23" t="n">
-        <v>-15.91512224570473</v>
+        <v>-17.64490529763635</v>
       </c>
     </row>
     <row r="24">
@@ -688,10 +688,10 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>1023.819588416411</v>
+        <v>1026.137087655397</v>
       </c>
       <c r="C24" t="n">
-        <v>-17.65687011455999</v>
+        <v>-19.45963081974372</v>
       </c>
     </row>
     <row r="25">
@@ -699,10 +699,10 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>1026.137458243248</v>
+        <v>1028.787082594505</v>
       </c>
       <c r="C25" t="n">
-        <v>-19.47074768843769</v>
+        <v>-21.31203325050016</v>
       </c>
     </row>
     <row r="26">
@@ -710,10 +710,10 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>1028.789625540223</v>
+        <v>1031.793509714979</v>
       </c>
       <c r="C26" t="n">
-        <v>-21.32190781591209</v>
+        <v>-23.15624547297541</v>
       </c>
     </row>
     <row r="27">
@@ -721,10 +721,10 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>1031.797981756247</v>
+        <v>1035.168184049393</v>
       </c>
       <c r="C27" t="n">
-        <v>-23.16447730402997</v>
+        <v>-24.93568270837466</v>
       </c>
     </row>
     <row r="28">
@@ -732,10 +732,10 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>1035.174217101272</v>
+        <v>1038.908499590754</v>
       </c>
       <c r="C28" t="n">
-        <v>-24.94190077405069</v>
+        <v>-26.58490385047601</v>
       </c>
     </row>
     <row r="29">
@@ -743,10 +743,10 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>1038.915603468725</v>
+        <v>1042.993568465308</v>
       </c>
       <c r="C29" t="n">
-        <v>-26.58880983477922</v>
+        <v>-28.03331719826882</v>
       </c>
     </row>
     <row r="30">
@@ -754,10 +754,10 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>1043.001151606598</v>
+        <v>1047.381607377792</v>
       </c>
       <c r="C30" t="n">
-        <v>-28.03473114831295</v>
+        <v>-29.21072412737492</v>
       </c>
     </row>
     <row r="31">
@@ -765,10 +765,10 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>1047.389017612456</v>
+        <v>1052.009532872941</v>
       </c>
       <c r="C31" t="n">
-        <v>-29.20962392453115</v>
+        <v>-30.05422294029461</v>
       </c>
     </row>
     <row r="32">
@@ -776,10 +776,10 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>1052.016115611358</v>
+        <v>1056.795437841993</v>
       </c>
       <c r="C32" t="n">
-        <v>-30.05076762953692</v>
+        <v>-30.51544862153979</v>
       </c>
     </row>
     <row r="33">
@@ -787,10 +787,10 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>1056.800603472454</v>
+        <v>1061.644068064488</v>
       </c>
       <c r="C33" t="n">
-        <v>-30.50997715190947</v>
+        <v>-30.5667684543646</v>
       </c>
     </row>
     <row r="34">
@@ -798,10 +798,10 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>1061.647356004964</v>
+        <v>1066.45466704286</v>
       </c>
       <c r="C34" t="n">
-        <v>-30.55977029818115</v>
+        <v>-30.20505560947113</v>
       </c>
     </row>
     <row r="35">
@@ -809,10 +809,10 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>1066.455792962074</v>
+        <v>1071.129827666029</v>
       </c>
       <c r="C35" t="n">
-        <v>-30.19711689342396</v>
+        <v>-29.45212622098606</v>
       </c>
     </row>
     <row r="36">
@@ -820,10 +820,10 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>1071.128703934767</v>
+        <v>1075.583732826149</v>
       </c>
       <c r="C36" t="n">
-        <v>-29.44386182622605</v>
+        <v>-28.35173144977079</v>
       </c>
     </row>
     <row r="37">
@@ -831,10 +831,10 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>1075.580459202228</v>
+        <v>1079.748302497312</v>
       </c>
       <c r="C37" t="n">
-        <v>-28.34371715548436</v>
+        <v>-26.96384251405938</v>
       </c>
     </row>
     <row r="38">
@@ -842,10 +842,10 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>1079.743131695326</v>
+        <v>1083.576431743372</v>
       </c>
       <c r="C38" t="n">
-        <v>-26.95656026508061</v>
+        <v>-25.35753197072063</v>
       </c>
     </row>
     <row r="39">
@@ -853,10 +853,10 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>1083.569719911811</v>
+        <v>1087.042245905668</v>
       </c>
       <c r="C39" t="n">
-        <v>-25.35133646304525</v>
+        <v>-23.60387555404385</v>
       </c>
     </row>
     <row r="40">
@@ -864,10 +864,10 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>1087.034399578402</v>
+        <v>1090.138952000708</v>
       </c>
       <c r="C40" t="n">
-        <v>-23.59898391822159</v>
+        <v>-21.77000545462791</v>
       </c>
     </row>
     <row r="41">
@@ -875,10 +875,10 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>1090.130381102693</v>
+        <v>1092.875201099785</v>
       </c>
       <c r="C41" t="n">
-        <v>-21.76650638682973</v>
+        <v>-19.91493124208519</v>
       </c>
     </row>
     <row r="42">
@@ -886,10 +886,10 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>1092.866283681825</v>
+        <v>1095.270868707152</v>
       </c>
       <c r="C42" t="n">
-        <v>-19.91280696454102</v>
+        <v>-18.08724864046166</v>
       </c>
     </row>
     <row r="43">
@@ -897,10 +897,10 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>1095.261929061534</v>
+        <v>1097.35300052989</v>
       </c>
       <c r="C43" t="n">
-        <v>-18.08640265475857</v>
+        <v>-16.32446717186322</v>
       </c>
     </row>
     <row r="44">
@@ -908,10 +908,10 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>1097.344299364534</v>
+        <v>1099.1523603659</v>
       </c>
       <c r="C44" t="n">
-        <v>-16.32475211661398</v>
+        <v>-14.65352438119803</v>
       </c>
     </row>
     <row r="45">
@@ -919,10 +919,10 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>1099.144094173206</v>
+        <v>1100.700758698712</v>
       </c>
       <c r="C45" t="n">
-        <v>-14.6547663438299</v>
+        <v>-13.09203729253734</v>
       </c>
     </row>
     <row r="46">
@@ -930,10 +930,10 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>1100.693065105523</v>
+        <v>1102.029190812048</v>
       </c>
       <c r="C46" t="n">
-        <v>-13.09405486362974</v>
+        <v>-11.64987696205793</v>
       </c>
     </row>
     <row r="47">
@@ -941,10 +941,10 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>1102.022157103526</v>
+        <v>1103.166642096036</v>
       </c>
       <c r="C47" t="n">
-        <v>-11.65249477796215</v>
+        <v>-10.33081971273083</v>
       </c>
     </row>
     <row r="48">
@@ -952,10 +952,10 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>1103.160314811185</v>
+        <v>1104.139447305663</v>
       </c>
       <c r="C48" t="n">
-        <v>-10.33387707505875</v>
+        <v>-9.134065319024575</v>
       </c>
     </row>
     <row r="49">
@@ -963,10 +963,10 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>1104.133841550007</v>
+        <v>1104.971030711264</v>
       </c>
       <c r="C49" t="n">
-        <v>-9.137420880187555</v>
+        <v>-8.055555321446462</v>
       </c>
     </row>
     <row r="50">
@@ -974,10 +974,10 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>1104.966138432926</v>
+        <v>1105.681905177526</v>
       </c>
       <c r="C50" t="n">
-        <v>-8.059088875846474</v>
+        <v>-7.089054663933233</v>
       </c>
     </row>
     <row r="51">
@@ -985,10 +985,10 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>1105.677702090401</v>
+        <v>1106.289832320351</v>
       </c>
       <c r="C51" t="n">
-        <v>-7.092666976087666</v>
+        <v>-6.226998296422964</v>
       </c>
     </row>
     <row r="52">
@@ -996,10 +996,10 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>1106.286283438568</v>
+        <v>1106.810066680294</v>
       </c>
       <c r="C52" t="n">
-        <v>-6.230609713866083</v>
+        <v>-5.461132772497128</v>
       </c>
     </row>
     <row r="53">
@@ -1007,10 +1007,10 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>1106.807130579311</v>
+        <v>1107.255634775505</v>
       </c>
       <c r="C53" t="n">
-        <v>-5.464681177909642</v>
+        <v>-4.782985519999054</v>
       </c>
     </row>
     <row r="54">
@@ -1018,10 +1018,10 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>1107.253266764353</v>
+        <v>1107.637618215322</v>
       </c>
       <c r="C54" t="n">
-        <v>-4.786424008884998</v>
+        <v>-4.184194559446066</v>
       </c>
     </row>
     <row r="55">
@@ -1029,10 +1029,10 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>1107.635772622225</v>
+        <v>1107.965422633335</v>
       </c>
       <c r="C55" t="n">
-        <v>-4.187489095465726</v>
+        <v>-3.656729002531245</v>
       </c>
     </row>
     <row r="56">
@@ -1040,10 +1040,10 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>1107.964054395747</v>
+        <v>1108.247021369631</v>
       </c>
       <c r="C56" t="n">
-        <v>-3.659856202406785</v>
+        <v>-3.193029002853611</v>
       </c>
     </row>
     <row r="57">
@@ -1051,10 +1051,10 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>1108.246087092616</v>
+        <v>1108.489171630823</v>
       </c>
       <c r="C57" t="n">
-        <v>-3.19597413311455</v>
+        <v>-2.786084266061772</v>
       </c>
     </row>
     <row r="58">
@@ -1062,10 +1062,10 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>1108.488630250653</v>
+        <v>1108.697601984084</v>
       </c>
       <c r="C58" t="n">
-        <v>-2.788839486517931</v>
+        <v>-2.42946936122737</v>
       </c>
     </row>
     <row r="59">
@@ -1073,10 +1073,10 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>1108.697415144877</v>
+        <v>1108.877172670866</v>
       </c>
       <c r="C59" t="n">
-        <v>-2.432032220521088</v>
+        <v>-2.117349246734995</v>
       </c>
     </row>
     <row r="60">
@@ -1084,10 +1084,10 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>1108.877304897079</v>
+        <v>1109.032012166065</v>
       </c>
       <c r="C60" t="n">
-        <v>-2.119721418041277</v>
+        <v>-1.84446350226335</v>
       </c>
     </row>
     <row r="61">
@@ -1095,10 +1095,10 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>1109.032430894594</v>
+        <v>1109.165632063919</v>
       </c>
       <c r="C61" t="n">
-        <v>-1.846649737063822</v>
+        <v>-1.606098082773952</v>
       </c>
     </row>
     <row r="62">
@@ -1106,10 +1106,10 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>1109.166307581791</v>
+        <v>1109.281023560601</v>
       </c>
       <c r="C62" t="n">
-        <v>-1.608105357302932</v>
+        <v>-1.398049404662488</v>
       </c>
     </row>
     <row r="63">
@@ -1117,10 +1117,10 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>1109.281928881996</v>
+        <v>1109.380738645861</v>
       </c>
       <c r="C63" t="n">
-        <v>-1.399886232726657</v>
+        <v>-1.216583896988355</v>
       </c>
     </row>
     <row r="64">
@@ -1128,10 +1128,10 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>1109.381849353309</v>
+        <v>1109.466957911767</v>
       </c>
       <c r="C64" t="n">
-        <v>-1.218259783467199</v>
+        <v>-1.058396636318253</v>
       </c>
     </row>
     <row r="65">
@@ -1139,10 +1139,10 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>1109.468251978137</v>
+        <v>1109.541547432188</v>
       </c>
       <c r="C65" t="n">
-        <v>-1.059921648544537</v>
+        <v>-0.9205702943754577</v>
       </c>
     </row>
     <row r="66">
@@ -1150,10 +1150,10 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>1109.54300503537</v>
+        <v>1109.606106376924</v>
       </c>
       <c r="C66" t="n">
-        <v>-0.9219547308389974</v>
+        <v>-0.8005358534073573</v>
       </c>
     </row>
     <row r="67">
@@ -1161,10 +1161,10 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>1109.607709714919</v>
+        <v>1109.662007150173</v>
       </c>
       <c r="C67" t="n">
-        <v>-0.8017899922113002</v>
+        <v>-0.696035336394116</v>
       </c>
     </row>
     <row r="68">
@@ -1172,10 +1172,10 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>1109.663740262124</v>
+        <v>1109.710428956499</v>
       </c>
       <c r="C68" t="n">
-        <v>-0.6971692480223524</v>
+        <v>-0.6050876525222098</v>
       </c>
     </row>
     <row r="69">
@@ -1183,10 +1183,10 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>1109.712277552361</v>
+        <v>1109.752386230434</v>
       </c>
       <c r="C69" t="n">
-        <v>-0.6061110646074341</v>
+        <v>-0.5259570446120188</v>
       </c>
     </row>
     <row r="70">
@@ -1194,10 +1194,10 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>1109.75433753147</v>
+        <v>1109.788752566752</v>
       </c>
       <c r="C70" t="n">
-        <v>-0.5268792477984902</v>
+        <v>-0.4571246149450359</v>
       </c>
     </row>
     <row r="71">
@@ -1205,10 +1205,10 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>1109.790795157496</v>
+        <v>1109.820281054952</v>
       </c>
       <c r="C71" t="n">
-        <v>-0.4579544012855721</v>
+        <v>-0.3972625219938897</v>
       </c>
     </row>
     <row r="72">
@@ -1216,10 +1216,10 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>1109.822404747107</v>
+        <v>1109.847621408085</v>
       </c>
       <c r="C72" t="n">
-        <v>-0.3980081485072987</v>
+        <v>-0.3452111050948479</v>
       </c>
     </row>
     <row r="73">
@@ -1227,10 +1227,10 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>1109.849817115819</v>
+        <v>1109.871334638433</v>
       </c>
       <c r="C73" t="n">
-        <v>-0.3458802769794751</v>
+        <v>-0.2999582736579103</v>
       </c>
     </row>
     <row r="74">
@@ -1238,10 +1238,10 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>1109.87359426496</v>
+        <v>1109.891905497459</v>
       </c>
       <c r="C74" t="n">
-        <v>-0.3005581421298609</v>
+        <v>-0.2606213294469678</v>
       </c>
     </row>
     <row r="75">
@@ -1249,10 +1249,10 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>1109.894221832107</v>
+        <v>1109.909753078959</v>
       </c>
       <c r="C75" t="n">
-        <v>-0.2611585005953702</v>
+        <v>-0.2264309087143197</v>
       </c>
     </row>
     <row r="76">
@@ -1260,10 +1260,10 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>1109.912119703985</v>
+        <v>1109.925239958061</v>
       </c>
       <c r="C76" t="n">
-        <v>-0.2269114604080321</v>
+        <v>-0.1967166712904568</v>
       </c>
     </row>
     <row r="77">
@@ -1271,10 +1271,10 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>1109.927651164705</v>
+        <v>1109.938679930909</v>
       </c>
       <c r="C77" t="n">
-        <v>-0.1971461755109001</v>
+        <v>-0.1708948712516779</v>
       </c>
     </row>
     <row r="78">
@@ -1282,10 +1282,10 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>1109.941130643674</v>
+        <v>1109.950344716455</v>
       </c>
       <c r="C78" t="n">
-        <v>-0.1712784202705304</v>
+        <v>-0.1484573134802993</v>
       </c>
     </row>
     <row r="79">
@@ -1293,10 +1293,10 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>1109.952830425098</v>
+        <v>1109.960469674577</v>
       </c>
       <c r="C79" t="n">
-        <v>-0.1487995482079807</v>
+        <v>-0.1289617409935139</v>
       </c>
     </row>
     <row r="80">
@@ -1304,10 +1304,10 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>1109.962986373007</v>
+        <v>1109.969258741707</v>
       </c>
       <c r="C80" t="n">
-        <v>-0.1292668805157901</v>
+        <v>-0.1120233799495819</v>
       </c>
     </row>
     <row r="81">
@@ -1315,10 +1315,10 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>1109.971802873198</v>
+        <v>1109.976888684164</v>
       </c>
       <c r="C81" t="n">
-        <v>-0.112295251336845</v>
+        <v>-0.09730753525657083</v>
       </c>
     </row>
     <row r="82">
@@ -1326,10 +1326,10 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>1109.979457092296</v>
+        <v>1109.983512755482</v>
       </c>
       <c r="C82" t="n">
-        <v>-0.09754960299660935</v>
+        <v>-0.08452313576672721</v>
       </c>
     </row>
     <row r="83">
@@ -1337,10 +1337,10 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>1109.986102640232</v>
+        <v>1109.989263853867</v>
       </c>
       <c r="C83" t="n">
-        <v>-0.08473853039302746</v>
+        <v>-0.07341709307895115</v>
       </c>
     </row>
     <row r="84">
@@ -1348,10 +1348,10 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>1109.991872732349</v>
+        <v>1109.994257244278</v>
       </c>
       <c r="C84" t="n">
-        <v>-0.0736086386588046</v>
+        <v>-0.06376938685234856</v>
       </c>
     </row>
     <row r="85">
@@ -1359,10 +1359,10 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>1109.996882915643</v>
+        <v>1109.998592921189</v>
       </c>
       <c r="C85" t="n">
-        <v>-0.06393962713241978</v>
+        <v>-0.0553887580082794</v>
       </c>
     </row>
     <row r="86">
@@ -1370,10 +1370,10 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>1110.00123343531</v>
+        <v>1110.002357645234</v>
       </c>
       <c r="C86" t="n">
-        <v>-0.0555399810328842</v>
+        <v>-0.04810896702345313</v>
       </c>
     </row>
     <row r="87">
@@ -1381,10 +1381,10 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>1110.005011274771</v>
+        <v>1110.005626693424</v>
       </c>
       <c r="C87" t="n">
-        <v>-0.04824322817962908</v>
+        <v>-0.04178555682252576</v>
       </c>
     </row>
     <row r="88">
@@ -1392,10 +1392,10 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>1110.008291908869</v>
+        <v>1110.008465401537</v>
       </c>
       <c r="C88" t="n">
-        <v>-0.04190470034164269</v>
+        <v>-0.03629298048184319</v>
       </c>
     </row>
     <row r="89">
@@ -1403,10 +1403,10 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>1110.011140849032</v>
+        <v>1110.010930473799</v>
       </c>
       <c r="C89" t="n">
-        <v>-0.03639865927773019</v>
+        <v>-0.03152215103958299</v>
       </c>
     </row>
     <row r="90">
@@ -1414,10 +1414,10 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>1110.01361495535</v>
+        <v>1110.013071129197</v>
       </c>
       <c r="C90" t="n">
-        <v>-0.03161584504776915</v>
+        <v>-0.02737828630879103</v>
       </c>
     </row>
     <row r="91">
@@ -1425,10 +1425,10 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>1110.015763585056</v>
+        <v>1110.014930093968</v>
       </c>
       <c r="C91" t="n">
-        <v>-0.02746131932493697</v>
+        <v>-0.02377903541846667</v>
       </c>
     </row>
     <row r="92">
@@ -1436,10 +1436,10 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>1110.017629586978</v>
+        <v>1110.016544459046</v>
       </c>
       <c r="C92" t="n">
-        <v>-0.02385259051036411</v>
+        <v>-0.02065285474512474</v>
       </c>
     </row>
     <row r="93">
@@ -1447,10 +1447,10 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>1110.019250160697</v>
+        <v>1110.017946425956</v>
       </c>
       <c r="C93" t="n">
-        <v>-0.0207179883317822</v>
+        <v>-0.01793759071780541</v>
       </c>
     </row>
     <row r="94">
@@ -1458,10 +1458,10 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>1110.020657604009</v>
+        <v>1110.019163952561</v>
       </c>
       <c r="C94" t="n">
-        <v>-0.01799524538542322</v>
+        <v>-0.01557924972181688</v>
       </c>
     </row>
     <row r="95">
@@ -1469,10 +1469,10 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>1110.021879960036</v>
+        <v>1110.020221313521</v>
       </c>
       <c r="C95" t="n">
-        <v>-0.01563026586797608</v>
+        <v>-0.01353092798286627</v>
       </c>
     </row>
     <row r="96">
@@ -1480,10 +1480,10 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>1110.022941578933</v>
+        <v>1110.021139586279</v>
       </c>
       <c r="C96" t="n">
-        <v>-0.01357605437189511</v>
+        <v>-0.0117518818062031</v>
       </c>
     </row>
     <row r="97">
@@ -1491,10 +1491,10 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>1110.023863604961</v>
+        <v>1110.021937072313</v>
       </c>
       <c r="C97" t="n">
-        <v>-0.01179178512038368</v>
+        <v>-0.01020672028454322</v>
       </c>
     </row>
     <row r="98">
@@ -1502,10 +1502,10 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>1110.024664398718</v>
+        <v>1110.022629664076</v>
       </c>
       <c r="C98" t="n">
-        <v>-0.0102419937541606</v>
+        <v>-0.008864700982787622</v>
       </c>
     </row>
     <row r="99">
@@ -1513,10 +1513,10 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>1110.025359904952</v>
+        <v>1110.023231161434</v>
       </c>
       <c r="C99" t="n">
-        <v>-0.008895872163543686</v>
+        <v>-0.007699121813566832</v>
       </c>
     </row>
     <row r="100">
@@ -1524,21 +1524,10 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>1110.025963969771</v>
+        <v>1110.023753548218</v>
       </c>
       <c r="C100" t="n">
-        <v>-0.007726659596688707</v>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" s="1" t="n">
-        <v>99</v>
-      </c>
-      <c r="B101" t="n">
-        <v>1110.026488617882</v>
-      </c>
-      <c r="C101" t="n">
-        <v>-0.006711109829550308</v>
+        <v>-0.006686788918006482</v>
       </c>
     </row>
   </sheetData>
